--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293025.0369413743</v>
+        <v>291186.8217441928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433867</v>
+        <v>6742609.142433865</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.1294826</v>
+        <v>21420621.12948259</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4249152.832425364</v>
+        <v>4249152.832425365</v>
       </c>
     </row>
     <row r="11">
@@ -2093,61 +2093,61 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="H20" t="n">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="I20" t="n">
+      <c r="V20" t="n">
+        <v>82.88054011090112</v>
+      </c>
+      <c r="W20" t="n">
         <v>73.00117972968167</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>75.05593188338557</v>
-      </c>
-      <c r="T21" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>82.88054011090112</v>
@@ -2254,14 +2254,14 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>73.00117972968167</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2330,61 +2330,61 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>73.00117972968168</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="S25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="W25" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C26" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2573,40 +2573,40 @@
         <v>82.88054011090112</v>
       </c>
       <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>73.00117972968168</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>82.88054011090112</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="X27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,70 +2713,70 @@
         <v>82.88054011090112</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>73.00117972968167</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>73.00117972968168</v>
       </c>
       <c r="Y28" t="n">
         <v>82.88054011090112</v>
@@ -2801,7 +2801,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>73.00117972968168</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T30" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U30" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="V30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>8.697622731470402</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,25 +2992,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="S31" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="U31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,25 +3074,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="S32" t="n">
+      <c r="X32" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="T32" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>73.00117972968167</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,65 +3108,65 @@
         <v>82.88054011090112</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="D33" t="n">
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>73.00117972968168</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3184,64 +3184,64 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>73.00117972968168</v>
       </c>
-      <c r="C34" t="n">
+      <c r="S34" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="T34" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="G34" t="n">
+      <c r="U34" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3278,10 +3278,10 @@
         <v>82.88054011090112</v>
       </c>
       <c r="G35" t="n">
-        <v>73.00117972968167</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,76 +3342,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>73.00117972968167</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="D36" t="n">
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="E36" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>73.00117972968167</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="T37" t="n">
+      <c r="W37" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="V37" t="n">
+      <c r="Y37" t="n">
         <v>73.00117972968167</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>82.88054011090112</v>
       </c>
       <c r="S38" t="n">
-        <v>73.00117972968168</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="T38" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="U38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3633,16 +3633,16 @@
         <v>82.88054011090112</v>
       </c>
       <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="U39" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
       <c r="W39" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>80.97802203781059</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.90369780277223</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="X40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="E41" t="n">
         <v>82.88054011090112</v>
@@ -3752,7 +3752,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="G41" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968167</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>82.88054011090112</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>73.00117972968167</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>8.697622731470402</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.88054011090112</v>
+        <v>73.00117972968168</v>
       </c>
       <c r="V43" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
     </row>
     <row r="44">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G20" t="n">
-        <v>164.0867258761274</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="H20" t="n">
-        <v>80.36900859238894</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I20" t="n">
         <v>6.63044320887209</v>
       </c>
       <c r="J20" t="n">
-        <v>6.63044320887209</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K20" t="n">
-        <v>33.04294201842688</v>
+        <v>115.094676728219</v>
       </c>
       <c r="L20" t="n">
         <v>115.094676728219</v>
       </c>
       <c r="M20" t="n">
+        <v>115.094676728219</v>
+      </c>
+      <c r="N20" t="n">
+        <v>115.094676728219</v>
+      </c>
+      <c r="O20" t="n">
         <v>197.1464114380111</v>
-      </c>
-      <c r="N20" t="n">
-        <v>279.1981461478032</v>
-      </c>
-      <c r="O20" t="n">
-        <v>279.1981461478032</v>
       </c>
       <c r="P20" t="n">
         <v>279.1981461478032</v>
@@ -5774,28 +5774,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R20" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S20" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T20" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U20" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V20" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W20" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X20" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y20" t="n">
-        <v>247.804443159866</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>174.0658777763491</v>
+      </c>
+      <c r="C21" t="n">
+        <v>174.0658777763491</v>
+      </c>
+      <c r="D21" t="n">
+        <v>174.0658777763491</v>
+      </c>
+      <c r="E21" t="n">
+        <v>174.0658777763491</v>
+      </c>
+      <c r="F21" t="n">
         <v>90.3481604926106</v>
       </c>
-      <c r="C21" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="D21" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="E21" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="F21" t="n">
-        <v>6.63044320887209</v>
-      </c>
       <c r="G21" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H21" t="n">
         <v>6.63044320887209</v>
@@ -5835,19 +5835,19 @@
         <v>6.63044320887209</v>
       </c>
       <c r="L21" t="n">
+        <v>6.63044320887209</v>
+      </c>
+      <c r="M21" t="n">
         <v>88.68217791866421</v>
       </c>
-      <c r="M21" t="n">
-        <v>170.7339126284563</v>
-      </c>
       <c r="N21" t="n">
-        <v>170.7339126284563</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="O21" t="n">
         <v>249.4704257338124</v>
       </c>
       <c r="P21" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q21" t="n">
         <v>331.5221604436045</v>
@@ -5856,25 +5856,25 @@
         <v>249.8799503858295</v>
       </c>
       <c r="S21" t="n">
+        <v>249.8799503858295</v>
+      </c>
+      <c r="T21" t="n">
+        <v>249.8799503858295</v>
+      </c>
+      <c r="U21" t="n">
+        <v>249.8799503858295</v>
+      </c>
+      <c r="V21" t="n">
+        <v>249.8799503858295</v>
+      </c>
+      <c r="W21" t="n">
+        <v>249.8799503858295</v>
+      </c>
+      <c r="X21" t="n">
         <v>174.0658777763491</v>
       </c>
-      <c r="T21" t="n">
-        <v>90.3481604926106</v>
-      </c>
-      <c r="U21" t="n">
-        <v>90.3481604926106</v>
-      </c>
-      <c r="V21" t="n">
-        <v>90.3481604926106</v>
-      </c>
-      <c r="W21" t="n">
-        <v>90.3481604926106</v>
-      </c>
-      <c r="X21" t="n">
-        <v>90.3481604926106</v>
-      </c>
       <c r="Y21" t="n">
-        <v>90.3481604926106</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="22">
@@ -5902,10 +5902,10 @@
         <v>80.36900859238894</v>
       </c>
       <c r="H22" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="I22" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="J22" t="n">
         <v>6.63044320887209</v>
@@ -5932,28 +5932,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R22" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="S22" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="V22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="W22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y22" t="n">
-        <v>247.804443159866</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C23" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D23" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E23" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F23" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G23" t="n">
         <v>6.63044320887209</v>
@@ -5996,7 +5996,7 @@
         <v>88.68217791866421</v>
       </c>
       <c r="M23" t="n">
-        <v>170.7339126284563</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="N23" t="n">
         <v>249.4704257338124</v>
@@ -6011,28 +6011,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R23" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S23" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T23" t="n">
-        <v>174.0658777763491</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U23" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V23" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W23" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X23" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y23" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C24" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D24" t="n">
         <v>6.63044320887209</v>
@@ -6066,52 +6066,52 @@
         <v>6.63044320887209</v>
       </c>
       <c r="J24" t="n">
-        <v>35.01446635656757</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K24" t="n">
-        <v>35.01446635656757</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L24" t="n">
-        <v>117.0662010663597</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M24" t="n">
-        <v>199.1179357761518</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="N24" t="n">
-        <v>281.1696704859439</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="O24" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P24" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="Q24" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R24" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S24" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T24" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U24" t="n">
-        <v>174.0658777763491</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V24" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W24" t="n">
-        <v>90.3481604926106</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X24" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y24" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="25">
@@ -6169,28 +6169,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R25" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S25" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="T25" t="n">
-        <v>247.804443159866</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="U25" t="n">
-        <v>164.0867258761274</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V25" t="n">
-        <v>80.36900859238894</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W25" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="X25" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6200,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>257.7835950600876</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C26" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D26" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E26" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F26" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G26" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H26" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="I26" t="n">
         <v>6.63044320887209</v>
       </c>
       <c r="J26" t="n">
-        <v>6.63044320887209</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K26" t="n">
-        <v>88.68217791866421</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L26" t="n">
-        <v>88.68217791866421</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M26" t="n">
-        <v>88.68217791866421</v>
+        <v>289.8535734151698</v>
       </c>
       <c r="N26" t="n">
-        <v>170.7339126284563</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O26" t="n">
-        <v>252.7856473382485</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P26" t="n">
-        <v>279.1981461478032</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q26" t="n">
         <v>331.5221604436045</v>
@@ -6251,25 +6251,25 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S26" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="U26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y26" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>35.01446635656757</v>
       </c>
       <c r="K27" t="n">
-        <v>35.01446635656757</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="L27" t="n">
-        <v>35.01446635656757</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="M27" t="n">
-        <v>35.01446635656757</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N27" t="n">
-        <v>117.0662010663597</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O27" t="n">
-        <v>199.1179357761518</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P27" t="n">
-        <v>281.1696704859439</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q27" t="n">
         <v>331.5221604436045</v>
@@ -6330,22 +6330,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S27" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="T27" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="U27" t="n">
-        <v>247.804443159866</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="V27" t="n">
-        <v>164.0867258761274</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W27" t="n">
-        <v>164.0867258761274</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X27" t="n">
-        <v>80.36900859238894</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y27" t="n">
         <v>6.63044320887209</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.3481604926106</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C28" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D28" t="n">
         <v>6.63044320887209</v>
@@ -6385,7 +6385,7 @@
         <v>6.63044320887209</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571539</v>
+        <v>14.60839277571537</v>
       </c>
       <c r="L28" t="n">
         <v>80.34385611233593</v>
@@ -6424,10 +6424,10 @@
         <v>331.5221604436045</v>
       </c>
       <c r="X28" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>257.7835950600876</v>
+      </c>
+      <c r="C29" t="n">
         <v>174.0658777763491</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
+        <v>174.0658777763491</v>
+      </c>
+      <c r="E29" t="n">
         <v>90.3481604926106</v>
-      </c>
-      <c r="D29" t="n">
-        <v>90.3481604926106</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6.63044320887209</v>
       </c>
       <c r="F29" t="n">
         <v>6.63044320887209</v>
@@ -6461,52 +6461,52 @@
         <v>6.63044320887209</v>
       </c>
       <c r="J29" t="n">
-        <v>6.63044320887209</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K29" t="n">
-        <v>6.63044320887209</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="L29" t="n">
-        <v>88.68217791866421</v>
+        <v>207.8018387053777</v>
       </c>
       <c r="M29" t="n">
-        <v>167.4186910240202</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="N29" t="n">
-        <v>249.4704257338124</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="O29" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="P29" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q29" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R29" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="S29" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T29" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U29" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V29" t="n">
         <v>257.7835950600876</v>
       </c>
-      <c r="S29" t="n">
+      <c r="W29" t="n">
         <v>257.7835950600876</v>
       </c>
-      <c r="T29" t="n">
+      <c r="X29" t="n">
         <v>257.7835950600876</v>
       </c>
-      <c r="U29" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="V29" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="W29" t="n">
-        <v>174.0658777763491</v>
-      </c>
-      <c r="X29" t="n">
-        <v>174.0658777763491</v>
-      </c>
       <c r="Y29" t="n">
-        <v>174.0658777763491</v>
+        <v>257.7835950600876</v>
       </c>
     </row>
     <row r="30">
@@ -6546,10 +6546,10 @@
         <v>35.01446635656757</v>
       </c>
       <c r="L30" t="n">
+        <v>35.01446635656757</v>
+      </c>
+      <c r="M30" t="n">
         <v>117.0662010663597</v>
-      </c>
-      <c r="M30" t="n">
-        <v>167.4186910240202</v>
       </c>
       <c r="N30" t="n">
         <v>167.4186910240202</v>
@@ -6567,16 +6567,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S30" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="T30" t="n">
-        <v>257.7835950600876</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="U30" t="n">
-        <v>174.0658777763491</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="V30" t="n">
-        <v>90.3481604926106</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="W30" t="n">
         <v>6.63044320887209</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="C31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="D31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="E31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="F31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="G31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="H31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="I31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="J31" t="n">
         <v>6.63044320887209</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571537</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L31" t="n">
         <v>80.34385611233593</v>
@@ -6640,31 +6640,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q31" t="n">
-        <v>331.5221604436045</v>
+        <v>266.5690725666234</v>
       </c>
       <c r="R31" t="n">
-        <v>331.5221604436045</v>
+        <v>182.8513552828849</v>
       </c>
       <c r="S31" t="n">
-        <v>247.804443159866</v>
+        <v>99.13363799914636</v>
       </c>
       <c r="T31" t="n">
-        <v>247.804443159866</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="U31" t="n">
-        <v>164.0867258761274</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36900859238894</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="W31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="X31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
       <c r="Y31" t="n">
-        <v>6.63044320887209</v>
+        <v>15.41592071540785</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C32" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D32" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E32" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F32" t="n">
         <v>6.63044320887209</v>
@@ -6704,46 +6704,46 @@
         <v>125.7501039955856</v>
       </c>
       <c r="L32" t="n">
-        <v>207.8018387053777</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="M32" t="n">
-        <v>289.8535734151698</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="N32" t="n">
-        <v>331.5221604436045</v>
+        <v>125.7501039955856</v>
       </c>
       <c r="O32" t="n">
-        <v>331.5221604436045</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P32" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q32" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="S32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V32" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W32" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="S32" t="n">
+      <c r="X32" t="n">
         <v>164.0867258761274</v>
       </c>
-      <c r="T32" t="n">
-        <v>80.36900859238894</v>
-      </c>
-      <c r="U32" t="n">
-        <v>80.36900859238894</v>
-      </c>
-      <c r="V32" t="n">
-        <v>80.36900859238894</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="X32" t="n">
-        <v>6.63044320887209</v>
-      </c>
       <c r="Y32" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>174.0658777763491</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C33" t="n">
         <v>90.3481604926106</v>
       </c>
       <c r="D33" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E33" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F33" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="G33" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H33" t="n">
         <v>6.63044320887209</v>
@@ -6780,19 +6780,19 @@
         <v>6.63044320887209</v>
       </c>
       <c r="K33" t="n">
+        <v>6.63044320887209</v>
+      </c>
+      <c r="L33" t="n">
+        <v>6.63044320887209</v>
+      </c>
+      <c r="M33" t="n">
         <v>88.68217791866421</v>
       </c>
-      <c r="L33" t="n">
-        <v>167.4186910240202</v>
-      </c>
-      <c r="M33" t="n">
-        <v>167.4186910240202</v>
-      </c>
       <c r="N33" t="n">
-        <v>249.4704257338124</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="O33" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P33" t="n">
         <v>331.5221604436045</v>
@@ -6801,28 +6801,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="T33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="U33" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="V33" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W33" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X33" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.7835950600876</v>
+        <v>174.0658777763491</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>257.7835950600876</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C34" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D34" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E34" t="n">
-        <v>174.0658777763491</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F34" t="n">
-        <v>90.3481604926106</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G34" t="n">
         <v>6.63044320887209</v>
@@ -6880,28 +6880,28 @@
         <v>331.5221604436045</v>
       </c>
       <c r="R34" t="n">
-        <v>331.5221604436045</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="S34" t="n">
-        <v>331.5221604436045</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="T34" t="n">
-        <v>331.5221604436045</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="U34" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="V34" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="W34" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="X34" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="Y34" t="n">
-        <v>331.5221604436045</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="C35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="D35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="E35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36900859238894</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="G35" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="H35" t="n">
         <v>6.63044320887209</v>
@@ -6935,52 +6935,52 @@
         <v>6.63044320887209</v>
       </c>
       <c r="J35" t="n">
-        <v>43.69836928579348</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="K35" t="n">
-        <v>125.7501039955856</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="L35" t="n">
-        <v>207.8018387053777</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="M35" t="n">
-        <v>289.8535734151698</v>
+        <v>88.68217791866421</v>
       </c>
       <c r="N35" t="n">
-        <v>331.5221604436045</v>
+        <v>170.7339126284563</v>
       </c>
       <c r="O35" t="n">
-        <v>331.5221604436045</v>
+        <v>252.7856473382485</v>
       </c>
       <c r="P35" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q35" t="n">
         <v>331.5221604436045</v>
       </c>
       <c r="R35" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S35" t="n">
-        <v>247.804443159866</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T35" t="n">
-        <v>164.0867258761274</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="V35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="W35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="X35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="Y35" t="n">
-        <v>164.0867258761274</v>
+        <v>257.7835950600876</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>331.5221604436045</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C36" t="n">
-        <v>247.804443159866</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D36" t="n">
-        <v>164.0867258761274</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E36" t="n">
-        <v>80.36900859238894</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="F36" t="n">
-        <v>80.36900859238894</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="G36" t="n">
         <v>6.63044320887209</v>
@@ -7014,22 +7014,22 @@
         <v>6.63044320887209</v>
       </c>
       <c r="J36" t="n">
-        <v>6.63044320887209</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="K36" t="n">
-        <v>6.63044320887209</v>
+        <v>35.01446635656757</v>
       </c>
       <c r="L36" t="n">
-        <v>85.36695631422812</v>
+        <v>117.0662010663597</v>
       </c>
       <c r="M36" t="n">
-        <v>167.4186910240202</v>
+        <v>199.1179357761518</v>
       </c>
       <c r="N36" t="n">
         <v>249.4704257338124</v>
       </c>
       <c r="O36" t="n">
-        <v>331.5221604436045</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="P36" t="n">
         <v>331.5221604436045</v>
@@ -7050,16 +7050,16 @@
         <v>331.5221604436045</v>
       </c>
       <c r="V36" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="W36" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="X36" t="n">
-        <v>331.5221604436045</v>
+        <v>247.804443159866</v>
       </c>
       <c r="Y36" t="n">
-        <v>331.5221604436045</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="37">
@@ -7120,22 +7120,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="S37" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="T37" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U37" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V37" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="T37" t="n">
+      <c r="W37" t="n">
         <v>164.0867258761274</v>
       </c>
-      <c r="U37" t="n">
+      <c r="X37" t="n">
         <v>80.36900859238894</v>
-      </c>
-      <c r="V37" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="W37" t="n">
-        <v>6.63044320887209</v>
-      </c>
-      <c r="X37" t="n">
-        <v>6.63044320887209</v>
       </c>
       <c r="Y37" t="n">
         <v>6.63044320887209</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="C38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="D38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="E38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="F38" t="n">
         <v>6.63044320887209</v>
@@ -7175,22 +7175,22 @@
         <v>43.69836928579348</v>
       </c>
       <c r="K38" t="n">
-        <v>43.69836928579348</v>
+        <v>85.36695631422812</v>
       </c>
       <c r="L38" t="n">
-        <v>43.69836928579348</v>
+        <v>167.4186910240202</v>
       </c>
       <c r="M38" t="n">
-        <v>125.7501039955856</v>
+        <v>249.4704257338124</v>
       </c>
       <c r="N38" t="n">
-        <v>197.1464114380111</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O38" t="n">
-        <v>197.1464114380111</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P38" t="n">
-        <v>279.1981461478032</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="Q38" t="n">
         <v>331.5221604436045</v>
@@ -7199,25 +7199,25 @@
         <v>247.804443159866</v>
       </c>
       <c r="S38" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="T38" t="n">
         <v>90.3481604926106</v>
       </c>
       <c r="U38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="V38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="W38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="X38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y38" t="n">
-        <v>6.63044320887209</v>
+        <v>90.3481604926106</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="C39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="D39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="E39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="F39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="G39" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="H39" t="n">
         <v>6.63044320887209</v>
@@ -7281,22 +7281,22 @@
         <v>247.804443159866</v>
       </c>
       <c r="T39" t="n">
+        <v>247.804443159866</v>
+      </c>
+      <c r="U39" t="n">
+        <v>247.804443159866</v>
+      </c>
+      <c r="V39" t="n">
         <v>164.0867258761274</v>
       </c>
-      <c r="U39" t="n">
-        <v>80.36900859238894</v>
-      </c>
-      <c r="V39" t="n">
-        <v>80.36900859238894</v>
-      </c>
       <c r="W39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="X39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="Y39" t="n">
-        <v>6.63044320887209</v>
+        <v>164.0867258761274</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="C40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="D40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="F40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="G40" t="n">
-        <v>6.63044320887209</v>
+        <v>247.804443159866</v>
       </c>
       <c r="H40" t="n">
-        <v>6.63044320887209</v>
+        <v>166.0084613034916</v>
       </c>
       <c r="I40" t="n">
-        <v>6.63044320887209</v>
+        <v>82.29074401975313</v>
       </c>
       <c r="J40" t="n">
         <v>6.63044320887209</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571536</v>
+        <v>14.60839277571539</v>
       </c>
       <c r="L40" t="n">
-        <v>80.3438561123359</v>
+        <v>80.34385611233593</v>
       </c>
       <c r="M40" t="n">
         <v>160.0418085032467</v>
@@ -7360,22 +7360,22 @@
         <v>331.5221604436045</v>
       </c>
       <c r="T40" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="U40" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="V40" t="n">
+        <v>331.5221604436045</v>
+      </c>
+      <c r="W40" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="U40" t="n">
+      <c r="X40" t="n">
         <v>247.804443159866</v>
       </c>
-      <c r="V40" t="n">
+      <c r="Y40" t="n">
         <v>247.804443159866</v>
-      </c>
-      <c r="W40" t="n">
-        <v>164.0867258761274</v>
-      </c>
-      <c r="X40" t="n">
-        <v>80.36900859238894</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>80.36900859238894</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7835950600876</v>
+        <v>247.804443159866</v>
       </c>
       <c r="E41" t="n">
-        <v>174.0658777763491</v>
+        <v>164.0867258761274</v>
       </c>
       <c r="F41" t="n">
-        <v>90.3481604926106</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="G41" t="n">
         <v>6.63044320887209</v>
@@ -7409,25 +7409,25 @@
         <v>6.63044320887209</v>
       </c>
       <c r="J41" t="n">
-        <v>6.63044320887209</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="K41" t="n">
-        <v>6.63044320887209</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="L41" t="n">
-        <v>88.68217791866421</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="M41" t="n">
-        <v>167.4186910240202</v>
+        <v>43.69836928579348</v>
       </c>
       <c r="N41" t="n">
-        <v>249.4704257338124</v>
+        <v>115.094676728219</v>
       </c>
       <c r="O41" t="n">
-        <v>249.4704257338124</v>
+        <v>197.1464114380111</v>
       </c>
       <c r="P41" t="n">
-        <v>331.5221604436045</v>
+        <v>279.1981461478032</v>
       </c>
       <c r="Q41" t="n">
         <v>331.5221604436045</v>
@@ -7454,7 +7454,7 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7835950600876</v>
+        <v>331.5221604436045</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>90.3481604926106</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="C42" t="n">
-        <v>90.3481604926106</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="D42" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="E42" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="F42" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="G42" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="H42" t="n">
-        <v>6.63044320887209</v>
+        <v>80.36900859238894</v>
       </c>
       <c r="I42" t="n">
         <v>6.63044320887209</v>
@@ -7497,13 +7497,13 @@
         <v>199.1179357761518</v>
       </c>
       <c r="M42" t="n">
-        <v>249.4704257338124</v>
+        <v>281.1696704859439</v>
       </c>
       <c r="N42" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="O42" t="n">
-        <v>249.4704257338124</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="P42" t="n">
         <v>331.5221604436045</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15.41592071540785</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="C43" t="n">
-        <v>15.41592071540785</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="D43" t="n">
-        <v>15.41592071540785</v>
+        <v>6.63044320887209</v>
       </c>
       <c r="E43" t="n">
         <v>6.63044320887209</v>
@@ -7588,31 +7588,31 @@
         <v>331.5221604436045</v>
       </c>
       <c r="Q43" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="R43" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="S43" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="T43" t="n">
-        <v>266.5690725666234</v>
+        <v>331.5221604436045</v>
       </c>
       <c r="U43" t="n">
-        <v>182.8513552828849</v>
+        <v>257.7835950600876</v>
       </c>
       <c r="V43" t="n">
-        <v>99.13363799914636</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="W43" t="n">
-        <v>15.41592071540785</v>
+        <v>174.0658777763491</v>
       </c>
       <c r="X43" t="n">
-        <v>15.41592071540785</v>
+        <v>90.3481604926106</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.41592071540785</v>
+        <v>6.63044320887209</v>
       </c>
     </row>
     <row r="44">
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>172.7438794814046</v>
+        <v>218.1820700196579</v>
       </c>
       <c r="L20" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M20" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N20" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O20" t="n">
-        <v>132.0474536396229</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P20" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,22 +9483,22 @@
         <v>87.56255053286915</v>
       </c>
       <c r="L21" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M21" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N21" t="n">
-        <v>50.36043154195551</v>
+        <v>129.892262961507</v>
       </c>
       <c r="O21" t="n">
-        <v>148.0460251459717</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P21" t="n">
-        <v>157.397570635056</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,10 +9644,10 @@
         <v>226.8120702076072</v>
       </c>
       <c r="M23" t="n">
-        <v>211.0427692287017</v>
+        <v>207.6940605373521</v>
       </c>
       <c r="N23" t="n">
-        <v>205.1074468900918</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O23" t="n">
         <v>214.927993750524</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.42030488819118</v>
       </c>
       <c r="K24" t="n">
         <v>87.56255053286915</v>
       </c>
       <c r="L24" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M24" t="n">
         <v>146.1213620584276</v>
       </c>
       <c r="N24" t="n">
-        <v>133.2409716528566</v>
+        <v>129.892262961507</v>
       </c>
       <c r="O24" t="n">
-        <v>119.3752946937541</v>
+        <v>151.3947338373213</v>
       </c>
       <c r="P24" t="n">
         <v>74.51703052415492</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.2360922216349</v>
+        <v>183.1166323325361</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>228.9451278654827</v>
       </c>
       <c r="L26" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M26" t="n">
-        <v>128.1622291178006</v>
+        <v>211.0427692287017</v>
       </c>
       <c r="N26" t="n">
-        <v>208.4561555814414</v>
+        <v>167.665097317444</v>
       </c>
       <c r="O26" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P26" t="n">
-        <v>174.2282341995558</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>87.56255053286915</v>
+        <v>170.4430906437703</v>
       </c>
       <c r="L27" t="n">
-        <v>70.94820947007287</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M27" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N27" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O27" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P27" t="n">
-        <v>157.397570635056</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q27" t="n">
-        <v>151.0971931889688</v>
+        <v>100.2360922216349</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>146.0645877545816</v>
+        <v>228.9451278654827</v>
       </c>
       <c r="L29" t="n">
         <v>226.8120702076072</v>
       </c>
       <c r="M29" t="n">
-        <v>207.6940605373521</v>
+        <v>200.2797113828769</v>
       </c>
       <c r="N29" t="n">
-        <v>208.4561555814414</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O29" t="n">
-        <v>214.927993750524</v>
+        <v>132.0474536396229</v>
       </c>
       <c r="P29" t="n">
         <v>147.5489424727328</v>
       </c>
       <c r="Q29" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,13 +10194,13 @@
         <v>87.56255053286915</v>
       </c>
       <c r="L30" t="n">
-        <v>153.828749580974</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M30" t="n">
-        <v>114.1019229148603</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N30" t="n">
-        <v>50.36043154195551</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O30" t="n">
         <v>151.3947338373213</v>
@@ -10352,22 +10352,22 @@
         <v>228.9451278654827</v>
       </c>
       <c r="L32" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M32" t="n">
-        <v>211.0427692287017</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N32" t="n">
-        <v>167.665097317444</v>
+        <v>125.5756154705403</v>
       </c>
       <c r="O32" t="n">
-        <v>132.0474536396229</v>
+        <v>204.1649359046991</v>
       </c>
       <c r="P32" t="n">
-        <v>147.5489424727328</v>
+        <v>230.4294825836339</v>
       </c>
       <c r="Q32" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,13 +10428,13 @@
         <v>97.42030488819118</v>
       </c>
       <c r="K33" t="n">
-        <v>170.4430906437703</v>
+        <v>87.56255053286915</v>
       </c>
       <c r="L33" t="n">
-        <v>150.4800408896244</v>
+        <v>70.94820947007287</v>
       </c>
       <c r="M33" t="n">
-        <v>63.24082194752643</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N33" t="n">
         <v>133.2409716528566</v>
@@ -10443,7 +10443,7 @@
         <v>151.3947338373213</v>
       </c>
       <c r="P33" t="n">
-        <v>74.51703052415492</v>
+        <v>154.0488619437065</v>
       </c>
       <c r="Q33" t="n">
         <v>100.2360922216349</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>131.6542655994259</v>
       </c>
       <c r="K35" t="n">
-        <v>228.9451278654827</v>
+        <v>146.0645877545816</v>
       </c>
       <c r="L35" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M35" t="n">
         <v>211.0427692287017</v>
       </c>
       <c r="N35" t="n">
-        <v>167.665097317444</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O35" t="n">
-        <v>132.0474536396229</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P35" t="n">
-        <v>147.5489424727328</v>
+        <v>174.2282341995558</v>
       </c>
       <c r="Q35" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,25 +10662,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>97.42030488819118</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>87.56255053286915</v>
       </c>
       <c r="L36" t="n">
-        <v>150.4800408896244</v>
+        <v>153.828749580974</v>
       </c>
       <c r="M36" t="n">
-        <v>146.1213620584275</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N36" t="n">
-        <v>133.2409716528566</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O36" t="n">
-        <v>151.3947338373213</v>
+        <v>68.51419372642016</v>
       </c>
       <c r="P36" t="n">
-        <v>74.51703052415492</v>
+        <v>157.397570635056</v>
       </c>
       <c r="Q36" t="n">
         <v>100.2360922216349</v>
@@ -10823,25 +10823,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>146.0645877545816</v>
+        <v>188.1540696014852</v>
       </c>
       <c r="L38" t="n">
-        <v>143.9315300967061</v>
+        <v>226.8120702076072</v>
       </c>
       <c r="M38" t="n">
         <v>211.0427692287017</v>
       </c>
       <c r="N38" t="n">
-        <v>197.6930977356166</v>
+        <v>208.4561555814414</v>
       </c>
       <c r="O38" t="n">
         <v>132.0474536396229</v>
       </c>
       <c r="P38" t="n">
-        <v>230.4294825836339</v>
+        <v>147.5489424727328</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>159.4624509671762</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>131.6542655994259</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>146.0645877545816</v>
       </c>
       <c r="L41" t="n">
-        <v>226.8120702076072</v>
+        <v>143.9315300967061</v>
       </c>
       <c r="M41" t="n">
-        <v>207.6940605373521</v>
+        <v>128.1622291178006</v>
       </c>
       <c r="N41" t="n">
-        <v>208.4561555814414</v>
+        <v>197.6930977356166</v>
       </c>
       <c r="O41" t="n">
-        <v>132.0474536396229</v>
+        <v>214.927993750524</v>
       </c>
       <c r="P41" t="n">
         <v>230.4294825836339</v>
       </c>
       <c r="Q41" t="n">
-        <v>159.4624509671762</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11145,16 +11145,16 @@
         <v>153.828749580974</v>
       </c>
       <c r="M42" t="n">
-        <v>114.1019229148603</v>
+        <v>146.1213620584276</v>
       </c>
       <c r="N42" t="n">
-        <v>50.36043154195551</v>
+        <v>101.2215325092894</v>
       </c>
       <c r="O42" t="n">
         <v>68.51419372642016</v>
       </c>
       <c r="P42" t="n">
-        <v>157.397570635056</v>
+        <v>74.51703052415492</v>
       </c>
       <c r="Q42" t="n">
         <v>100.2360922216349</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>331.8402549434936</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H20" t="n">
-        <v>250.634443778809</v>
+        <v>333.5149838897102</v>
       </c>
       <c r="I20" t="n">
-        <v>115.0393731230323</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>113.3136748416693</v>
+        <v>30.4331347307682</v>
       </c>
       <c r="S20" t="n">
         <v>195.7590557621249</v>
@@ -24023,19 +24023,19 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000762</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>244.8717183592338</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>276.2397889877313</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.3573985451525</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,13 +24057,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>62.18867228248276</v>
       </c>
       <c r="G21" t="n">
         <v>137.0321504965985</v>
       </c>
       <c r="H21" t="n">
-        <v>109.2282977457949</v>
+        <v>26.34775763489374</v>
       </c>
       <c r="I21" t="n">
         <v>78.67633314568958</v>
@@ -24096,10 +24096,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>90.84373995245895</v>
+        <v>165.8996718358445</v>
       </c>
       <c r="T21" t="n">
-        <v>116.0291624145496</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U21" t="n">
         <v>225.9208974318556</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>130.7170533200919</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.95144007103617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>84.36628098772671</v>
@@ -24142,13 +24142,13 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H22" t="n">
-        <v>86.9051156139422</v>
+        <v>159.9062953436239</v>
       </c>
       <c r="I22" t="n">
         <v>147.6003096328796</v>
       </c>
       <c r="J22" t="n">
-        <v>74.90369780277223</v>
+        <v>1.902518073090562</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R22" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525356</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T22" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U22" t="n">
         <v>286.3047908462834</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>331.8402549434936</v>
+        <v>414.7207950543947</v>
       </c>
       <c r="H23" t="n">
         <v>333.5149838897102</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.31249511198764</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S23" t="n">
         <v>195.7590557621249</v>
       </c>
       <c r="T23" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2990975109773</v>
+        <v>168.4185574000762</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24269,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>313.2367589263719</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24285,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>89.82795887741462</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>74.44388583495709</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.824608227515583</v>
+        <v>80.82578795719726</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494339</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0291624145496</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U24" t="n">
         <v>225.9208974318556</v>
       </c>
       <c r="V24" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>96.95144007103617</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24409,10 +24409,10 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R25" t="n">
-        <v>165.5561127961547</v>
+        <v>92.554933066473</v>
       </c>
       <c r="S25" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T25" t="n">
         <v>226.8302394620306</v>
@@ -24424,7 +24424,7 @@
         <v>169.2571032129269</v>
       </c>
       <c r="W25" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525795</v>
       </c>
       <c r="C26" t="n">
-        <v>282.3923516601064</v>
+        <v>292.2717120413259</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24461,7 +24461,7 @@
         <v>250.634443778809</v>
       </c>
       <c r="I26" t="n">
-        <v>105.1600127418128</v>
+        <v>188.040552852714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>113.3136748416693</v>
       </c>
       <c r="S26" t="n">
-        <v>122.7578760324432</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5483964422405</v>
+        <v>137.6678563313394</v>
       </c>
       <c r="U26" t="n">
         <v>251.2990975109773</v>
@@ -24570,7 +24570,7 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8996718358445</v>
+        <v>92.89849210616283</v>
       </c>
       <c r="T27" t="n">
         <v>198.9097025254507</v>
@@ -24582,13 +24582,13 @@
         <v>149.9200470385242</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>168.8144430500185</v>
       </c>
       <c r="X27" t="n">
-        <v>122.8924450925764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>132.6815160476227</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,10 +24601,10 @@
         <v>96.95144007103617</v>
       </c>
       <c r="C28" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>75.61429328853069</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>152.7084756593555</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y28" t="n">
         <v>135.7041132411937</v>
@@ -24689,7 +24689,7 @@
         <v>299.0498299613607</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G29" t="n">
         <v>414.7207950543947</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.31249511198764</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S29" t="n">
         <v>195.7590557621249</v>
@@ -24734,10 +24734,10 @@
         <v>220.5483964422405</v>
       </c>
       <c r="U29" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>254.7510787404532</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24807,19 +24807,19 @@
         <v>80.82578795719726</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8996718358445</v>
+        <v>83.01913172494339</v>
       </c>
       <c r="T30" t="n">
-        <v>125.908522795769</v>
+        <v>116.0291624145496</v>
       </c>
       <c r="U30" t="n">
         <v>143.0403573209545</v>
       </c>
       <c r="V30" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>168.8144430500185</v>
+        <v>178.6938034312379</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24859,7 +24859,7 @@
         <v>147.6003096328796</v>
       </c>
       <c r="J31" t="n">
-        <v>74.90369780277223</v>
+        <v>66.20607507130183</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.5561127961547</v>
+        <v>82.67557268525356</v>
       </c>
       <c r="S31" t="n">
         <v>136.5868539147882</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U31" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V31" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>213.5218186069093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>299.8533015525795</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>333.8748660120298</v>
       </c>
       <c r="G32" t="n">
         <v>414.7207950543947</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.4331347307682</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S32" t="n">
-        <v>112.8785156512237</v>
+        <v>195.7590557621249</v>
       </c>
       <c r="T32" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U32" t="n">
         <v>251.2990975109773</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>276.2397889877313</v>
+        <v>266.3604286065119</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>286.8505605675679</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,10 +24996,10 @@
         <v>83.65264353896622</v>
       </c>
       <c r="C33" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25011,7 +25011,7 @@
         <v>137.0321504965985</v>
       </c>
       <c r="H33" t="n">
-        <v>109.2282977457949</v>
+        <v>26.34775763489374</v>
       </c>
       <c r="I33" t="n">
         <v>78.67633314568958</v>
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.82578795719726</v>
+        <v>7.824608227515583</v>
       </c>
       <c r="S33" t="n">
         <v>165.8996718358445</v>
@@ -25053,7 +25053,7 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>132.6815160476227</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.8308004522556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>62.54050791203012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>84.84939989375424</v>
+        <v>167.7299400046554</v>
       </c>
       <c r="H34" t="n">
         <v>159.9062953436239</v>
@@ -25120,16 +25120,16 @@
         <v>64.30355699821131</v>
       </c>
       <c r="R34" t="n">
-        <v>165.5561127961547</v>
+        <v>92.554933066473</v>
       </c>
       <c r="S34" t="n">
-        <v>219.4673940256893</v>
+        <v>136.5868539147882</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8302394620306</v>
+        <v>143.9496993511295</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3047908462834</v>
+        <v>203.4242507353823</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,10 +25166,10 @@
         <v>323.9955056308103</v>
       </c>
       <c r="G35" t="n">
-        <v>341.7196153247131</v>
+        <v>331.8402549434936</v>
       </c>
       <c r="H35" t="n">
-        <v>333.5149838897102</v>
+        <v>250.634443778809</v>
       </c>
       <c r="I35" t="n">
         <v>188.040552852714</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.4331347307682</v>
+        <v>113.3136748416693</v>
       </c>
       <c r="S35" t="n">
         <v>195.7590557621249</v>
       </c>
       <c r="T35" t="n">
-        <v>137.6678563313394</v>
+        <v>220.5483964422405</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2990975109773</v>
+        <v>178.2979177812956</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,22 +25230,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C36" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>74.76454034449982</v>
+        <v>84.64390072571928</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>64.03097076691682</v>
+        <v>137.0321504965985</v>
       </c>
       <c r="H36" t="n">
         <v>109.2282977457949</v>
@@ -25290,7 +25290,7 @@
         <v>225.9208974318556</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25299,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>122.8021556664032</v>
       </c>
     </row>
     <row r="37">
@@ -25360,25 +25360,25 @@
         <v>165.5561127961547</v>
       </c>
       <c r="S37" t="n">
-        <v>136.5868539147882</v>
+        <v>219.4673940256893</v>
       </c>
       <c r="T37" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U37" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3047908462834</v>
       </c>
       <c r="V37" t="n">
-        <v>179.1364635941463</v>
+        <v>169.2571032129269</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>203.6424582256899</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>145.5834736224131</v>
       </c>
     </row>
     <row r="38">
@@ -25400,7 +25400,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>323.9955056308103</v>
       </c>
       <c r="G38" t="n">
         <v>414.7207950543947</v>
@@ -25439,13 +25439,13 @@
         <v>30.4331347307682</v>
       </c>
       <c r="S38" t="n">
-        <v>122.7578760324432</v>
+        <v>112.8785156512237</v>
       </c>
       <c r="T38" t="n">
-        <v>137.6678563313394</v>
+        <v>147.5472167125588</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2990975109773</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,10 +25482,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0321504965985</v>
+        <v>54.15161038569737</v>
       </c>
       <c r="H39" t="n">
-        <v>109.2282977457949</v>
+        <v>36.2271180161132</v>
       </c>
       <c r="I39" t="n">
         <v>78.67633314568958</v>
@@ -25521,16 +25521,16 @@
         <v>83.01913172494339</v>
       </c>
       <c r="T39" t="n">
-        <v>116.0291624145496</v>
+        <v>198.9097025254507</v>
       </c>
       <c r="U39" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9208974318556</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>149.9200470385242</v>
       </c>
       <c r="W39" t="n">
-        <v>178.6938034312379</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>106.8308004522556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25564,13 +25564,13 @@
         <v>167.7299400046554</v>
       </c>
       <c r="H40" t="n">
-        <v>159.9062953436239</v>
+        <v>78.92827330581328</v>
       </c>
       <c r="I40" t="n">
-        <v>147.6003096328796</v>
+        <v>64.71976952197848</v>
       </c>
       <c r="J40" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>219.4673940256893</v>
       </c>
       <c r="T40" t="n">
-        <v>143.9496993511295</v>
+        <v>226.8302394620306</v>
       </c>
       <c r="U40" t="n">
         <v>286.3047908462834</v>
@@ -25612,7 +25612,7 @@
         <v>203.6424582256899</v>
       </c>
       <c r="X40" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,7 +25631,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>271.8025015097818</v>
       </c>
       <c r="E41" t="n">
         <v>299.0498299613607</v>
@@ -25640,7 +25640,7 @@
         <v>323.9955056308103</v>
       </c>
       <c r="G41" t="n">
-        <v>331.8402549434936</v>
+        <v>341.7196153247131</v>
       </c>
       <c r="H41" t="n">
         <v>333.5149838897102</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,13 +25704,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.53200392018567</v>
+        <v>83.65264353896622</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>64.56452545373763</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25725,7 +25725,7 @@
         <v>109.2282977457949</v>
       </c>
       <c r="I42" t="n">
-        <v>78.67633314568958</v>
+        <v>5.675153416007916</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>137.7363399150988</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.30355699821131</v>
       </c>
       <c r="R43" t="n">
         <v>165.5561127961547</v>
@@ -25840,19 +25840,19 @@
         <v>226.8302394620306</v>
       </c>
       <c r="U43" t="n">
-        <v>203.4242507353823</v>
+        <v>213.3036111166018</v>
       </c>
       <c r="V43" t="n">
         <v>169.2571032129269</v>
       </c>
       <c r="W43" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>142.829115278136</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>135.7041132411937</v>
       </c>
     </row>
     <row r="44">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>405295.0438779742</v>
+        <v>405295.0438779743</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>405295.0438779743</v>
+        <v>405295.0438779742</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405295.0438779743</v>
+        <v>405295.0438779742</v>
       </c>
     </row>
     <row r="16">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>48119.72719740959</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="F4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="G4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
       <c r="H4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889746</v>
       </c>
       <c r="I4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889746</v>
       </c>
       <c r="J4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="K4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889746</v>
       </c>
       <c r="L4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="M4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="N4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889746</v>
       </c>
       <c r="O4" t="n">
-        <v>41852.43468768016</v>
+        <v>42076.97201889745</v>
       </c>
       <c r="P4" t="n">
-        <v>31057.69372147138</v>
+        <v>31224.60414290214</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9633.967504319859</v>
+        <v>9375.362212578584</v>
       </c>
       <c r="C6" t="n">
-        <v>9633.967504319859</v>
+        <v>9375.362212578584</v>
       </c>
       <c r="D6" t="n">
-        <v>9633.967504319844</v>
+        <v>9375.36221257857</v>
       </c>
       <c r="E6" t="n">
-        <v>-53943.55726379382</v>
+        <v>-54110.46768522458</v>
       </c>
       <c r="F6" t="n">
-        <v>62355.6045342662</v>
+        <v>62188.69411283545</v>
       </c>
       <c r="G6" t="n">
-        <v>62355.6045342662</v>
+        <v>62188.69411283545</v>
       </c>
       <c r="H6" t="n">
-        <v>44117.74682640345</v>
+        <v>43893.20949518618</v>
       </c>
       <c r="I6" t="n">
-        <v>66479.6624731856</v>
+        <v>66255.12514196832</v>
       </c>
       <c r="J6" t="n">
-        <v>66479.66247318563</v>
+        <v>66255.12514196831</v>
       </c>
       <c r="K6" t="n">
-        <v>66479.66247318561</v>
+        <v>66255.1251419683</v>
       </c>
       <c r="L6" t="n">
-        <v>66479.6624731856</v>
+        <v>66255.12514196834</v>
       </c>
       <c r="M6" t="n">
-        <v>66479.66247318563</v>
+        <v>66255.12514196834</v>
       </c>
       <c r="N6" t="n">
-        <v>66479.66247318563</v>
+        <v>66255.12514196831</v>
       </c>
       <c r="O6" t="n">
-        <v>66479.6624731856</v>
+        <v>66255.12514196832</v>
       </c>
       <c r="P6" t="n">
-        <v>62355.6045342662</v>
+        <v>62188.69411283545</v>
       </c>
     </row>
   </sheetData>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K20" t="n">
-        <v>26.67929172682302</v>
+        <v>72.11748226507629</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="N20" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>52.85253969272853</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>79.53183141955154</v>
       </c>
       <c r="O21" t="n">
-        <v>79.53183141955155</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,10 +36288,10 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090111</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P22" t="n">
         <v>28.85008256489769</v>
@@ -36364,10 +36364,10 @@
         <v>82.88054011090112</v>
       </c>
       <c r="M23" t="n">
+        <v>79.53183141955154</v>
+      </c>
+      <c r="N23" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="N23" t="n">
-        <v>79.53183141955155</v>
       </c>
       <c r="O23" t="n">
         <v>82.88054011090112</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="N24" t="n">
+        <v>79.53183141955154</v>
+      </c>
+      <c r="O24" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="O24" t="n">
-        <v>50.8611009673339</v>
-      </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>66.39945791577833</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304118</v>
+        <v>80.50298221304115</v>
       </c>
       <c r="N25" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P25" t="n">
         <v>28.85008256489769</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K26" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N26" t="n">
-        <v>82.88054011090112</v>
+        <v>42.08948184690371</v>
       </c>
       <c r="O26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>26.67929172682302</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>28.67073045221765</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="N27" t="n">
-        <v>82.88054011090112</v>
+        <v>50.8611009673339</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P28" t="n">
         <v>28.85008256489769</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="L29" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="M29" t="n">
-        <v>79.53183141955154</v>
+        <v>72.11748226507632</v>
       </c>
       <c r="N29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>50.86110096733389</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>82.88054011090112</v>
@@ -37002,7 +37002,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P31" t="n">
         <v>28.85008256489769</v>
@@ -37072,22 +37072,22 @@
         <v>82.88054011090112</v>
       </c>
       <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>72.11748226507629</v>
+      </c>
+      <c r="P32" t="n">
         <v>82.88054011090112</v>
       </c>
-      <c r="M32" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="N32" t="n">
-        <v>42.08948184690371</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="L33" t="n">
-        <v>79.53183141955154</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>82.88054011090112</v>
@@ -37163,7 +37163,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.53183141955155</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>80.50298221304118</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090112</v>
+        <v>82.88054011090111</v>
       </c>
       <c r="O34" t="n">
         <v>61.48185403163331</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="N35" t="n">
-        <v>42.08948184690371</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>26.67929172682302</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>28.67073045221765</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>79.53183141955154</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M36" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="N36" t="n">
+        <v>50.8611009673339</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="O36" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163332</v>
+        <v>61.48185403163331</v>
       </c>
       <c r="P37" t="n">
         <v>28.85008256489769</v>
@@ -37543,25 +37543,25 @@
         <v>37.44234957264788</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>42.08948184690367</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="M38" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="N38" t="n">
-        <v>72.11748226507629</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003302</v>
+        <v>8.058534916003332</v>
       </c>
       <c r="L40" t="n">
         <v>66.39945791577833</v>
@@ -37713,7 +37713,7 @@
         <v>82.88054011090112</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163331</v>
+        <v>61.48185403163332</v>
       </c>
       <c r="P40" t="n">
         <v>28.85008256489769</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>37.44234957264788</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>72.11748226507629</v>
+      </c>
+      <c r="O41" t="n">
         <v>82.88054011090112</v>
-      </c>
-      <c r="M41" t="n">
-        <v>79.53183141955154</v>
-      </c>
-      <c r="N41" t="n">
-        <v>82.88054011090112</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>82.88054011090112</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>52.85253969272853</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>82.88054011090112</v>
       </c>
       <c r="M42" t="n">
+        <v>82.88054011090112</v>
+      </c>
+      <c r="N42" t="n">
         <v>50.8611009673339</v>
       </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>66.39945791577833</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50298221304118</v>
+        <v>80.50298221304115</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090111</v>
+        <v>82.88054011090112</v>
       </c>
       <c r="O43" t="n">
         <v>61.48185403163331</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>291186.8217441928</v>
+        <v>304787.3935747218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6742609.142433865</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21420621.12948259</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4249152.832425365</v>
+        <v>3839322.14174515</v>
       </c>
     </row>
     <row r="11">
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2169,13 +2171,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.82578795719726</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>75.05593188338557</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2260,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2372,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2682,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2792,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2919,19 +2921,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>8.697622731470402</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.30355699821131</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3089,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3165,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3402,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3411,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3548,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3594,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3676,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.97802203781059</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.90369780277223</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3743,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>73.00117972968167</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3879,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>73.00117972968168</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>249.8799503858295</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>289.8535734151698</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>14.60839277571537</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>207.8018387053777</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.5690725666234</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>182.8513552828849</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>99.13363799914636</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.41592071540785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>125.7501039955856</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>88.68217791866421</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>170.7339126284563</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>252.7856473382485</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>85.36695631422812</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>167.4186910240202</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>249.4704257338124</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>166.0084613034916</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>82.29074401975313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>43.69836928579348</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>115.094676728219</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>197.1464114380111</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>279.1981461478032</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>80.36900859238894</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>35.01446635656757</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>117.0662010663597</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>199.1179357761518</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>281.1696704859439</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>247.804443159866</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>164.0867258761274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>14.60839277571539</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>80.34385611233593</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>160.0418085032467</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0935432130388</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>302.9605787043558</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>331.5221604436045</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>257.7835950600876</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>174.0658777763491</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>90.3481604926106</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.63044320887209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>218.1820700196579</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>129.892262961507</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>207.6940605373521</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>129.892262961507</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>167.665097317444</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>200.2797113828769</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>183.1166323325361</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>228.9451278654827</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>204.1649359046991</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>154.0488619437065</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>174.2282341995558</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>157.397570635056</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>188.1540696014852</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>226.8120702076072</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>211.0427692287017</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>208.4561555814414</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>150.4800408896244</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>146.1213620584275</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>133.2409716528566</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>151.3947338373213</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>197.6930977356166</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>214.927993750524</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4294825836339</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4430906437703</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>153.828749580974</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>146.1213620584276</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>101.2215325092894</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>162.4747015415544</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>178.5096609094456</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>170.61994418911</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>163.0416663658825</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>131.6542655994259</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>146.0645877545816</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>143.9315300967061</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>128.1622291178006</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>125.5756154705403</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0474536396229</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>147.5489424727328</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>159.4624509671762</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.42030488819118</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>87.56255053286915</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>70.94820947007287</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>63.24082194752643</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>50.36043154195551</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>68.51419372642016</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>74.51703052415492</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.2360922216349</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>98.68523142864919</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>96.0752436257761</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>98.00667869640446</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>87.73940407820889</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>101.5598123342492</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>106.1564807491434</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>30.4331347307682</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>244.8717183592338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>276.2397889877313</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24057,16 +24059,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>62.18867228248276</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>26.34775763489374</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>130.7170533200919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>84.36628098772671</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>1.902518073090562</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>168.4185574000762</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>313.2367589263719</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>89.82795887741462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>74.44388583495709</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.95144007103617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,22 +24408,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>92.554933066473</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>299.8533015525795</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>292.2717120413259</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>137.6678563313394</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>92.89849210616283</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.95144007103617</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>75.61429328853069</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24664,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>282.3923516601064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>299.0498299613607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>254.7510787404532</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>116.0291624145496</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>143.0403573209545</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>178.6938034312379</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>66.20607507130183</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>82.67557268525356</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>143.9496993511295</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>299.8533015525795</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>333.8748660120298</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>266.3604286065119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>286.8505605675679</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>26.34775763489374</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.824608227515583</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>92.554933066473</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>136.5868539147882</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>143.9496993511295</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>203.4242507353823</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8402549434936</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>250.634443778809</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2979177812956</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25239,19 +25241,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>84.64390072571928</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25299,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.5834736224131</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.4331347307682</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>112.8785156512237</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>147.5472167125588</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>54.15161038569737</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>36.2271180161132</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>83.01913172494339</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>149.9200470385242</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>78.92827330581328</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>64.71976952197848</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.6424582256899</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25631,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>271.8025015097818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>299.0498299613607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>323.9955056308103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>341.7196153247131</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.65264353896622</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>5.675153416007916</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>168.8144430500185</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>122.8021556664032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>213.3036111166018</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>169.2571032129269</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>142.829115278136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.7041132411937</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7207950543947</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>333.5149838897102</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>188.040552852714</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>113.3136748416693</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>195.7590557621249</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5483964422405</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2990975109773</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0321504965985</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>109.2282977457949</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>78.67633314568958</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.82578795719726</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8996718358445</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>198.9097025254507</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9208974318556</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7299400046554</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>159.9062953436239</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>147.6003096328796</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>74.90369780277223</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.30355699821131</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>165.5561127961547</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>219.4673940256893</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>226.8302394620306</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3047908462834</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332292.7463158441</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332292.7463158441</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>332292.7463158441</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>405295.0438779741</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>405295.0438779743</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>405295.0438779742</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332292.7463158441</v>
+        <v>331618.7005987585</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>91381.29470172945</v>
       </c>
       <c r="D2" t="n">
-        <v>91381.29470172944</v>
+        <v>91381.29470172945</v>
       </c>
       <c r="E2" t="n">
-        <v>96569.02673471726</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="F2" t="n">
-        <v>96569.02673471726</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="G2" t="n">
-        <v>96569.02673471726</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="H2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="I2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="J2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="K2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="L2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="M2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="N2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="O2" t="n">
-        <v>116526.9624785882</v>
+        <v>97172.46592738405</v>
       </c>
       <c r="P2" t="n">
-        <v>96569.02673471726</v>
+        <v>97172.46592738405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116299.16179806</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>22361.91564678215</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>31224.60414290214</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="F4" t="n">
-        <v>31224.60414290214</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="G4" t="n">
-        <v>31224.60414290214</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="H4" t="n">
-        <v>42076.97201889746</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="I4" t="n">
-        <v>42076.97201889746</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="J4" t="n">
-        <v>42076.97201889745</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="K4" t="n">
-        <v>42076.97201889746</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="L4" t="n">
-        <v>42076.97201889745</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="M4" t="n">
-        <v>42076.97201889745</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="N4" t="n">
-        <v>42076.97201889746</v>
+        <v>28669.24800161989</v>
       </c>
       <c r="O4" t="n">
-        <v>42076.97201889745</v>
+        <v>28669.24800161988</v>
       </c>
       <c r="P4" t="n">
-        <v>31224.60414290214</v>
+        <v>28669.24800161989</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>8194.865317722464</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>3155.728478979676</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578584</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.362212578584</v>
+        <v>9375.36221257857</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.36221257857</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="E6" t="n">
-        <v>-54110.46768522458</v>
+        <v>-68208.39417924421</v>
       </c>
       <c r="F6" t="n">
-        <v>62188.69411283545</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="G6" t="n">
-        <v>62188.69411283545</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="H6" t="n">
-        <v>43893.20949518618</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="I6" t="n">
-        <v>66255.12514196832</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="J6" t="n">
-        <v>66255.12514196831</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="K6" t="n">
-        <v>66255.1251419683</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="L6" t="n">
-        <v>66255.12514196834</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="M6" t="n">
-        <v>66255.12514196834</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="N6" t="n">
-        <v>66255.12514196831</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="O6" t="n">
-        <v>66255.12514196832</v>
+        <v>64891.60582075585</v>
       </c>
       <c r="P6" t="n">
-        <v>62188.69411283545</v>
+        <v>64891.60582075585</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26807,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.7581871091595</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>82.88054011090124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5819424607403391</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>5.959818226056999</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>22.43533671769194</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>49.3916389272604</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>74.02526329039897</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>91.83488487328114</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>102.1840041094721</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>103.8374481260506</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>98.05075778206388</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>83.68405328253675</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.84323890727333</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>36.55544309948036</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>13.26101382412049</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>2.547453121890836</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04655539685922712</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3113666666121543</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>3.007146490701596</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>10.72029970572549</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>29.41732177847551</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>50.27888844148985</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>67.60617030980131</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>78.89321197449189</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>80.9812805413778</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>74.08205071802428</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>59.45737689017533</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.74568186438658</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>19.33204619544587</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>5.7834992679933</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>1.25502616937092</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02048464911922069</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2610393538034023</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>2.320877163815705</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>7.850165294378681</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>18.45548231390054</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>30.32802674188618</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>38.8094326554622</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>40.91910525120058</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>39.9461403870243</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>36.89672611759364</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>31.5715233000042</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.85848625348308</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>11.73727858101479</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>4.549204011282927</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>1.1153499662509</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01423851020745832</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>82.88054011090111</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,16 +36363,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>80.50298221304115</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>42.08948184690371</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36753,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>72.11748226507632</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>50.86110096733389</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>61.48185403163332</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,13 +37083,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>79.53183141955155</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.88054011090111</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37312,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>26.67929172682302</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>42.08948184690367</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37625,16 +37627,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>79.53183141955154</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>80.50298221304118</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>61.48185403163332</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>37.44234957264788</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37789,16 +37791,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>72.11748226507629</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.85253969272853</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>28.67073045221765</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>50.8611009673339</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37938,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>8.058534916003332</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>66.39945791577833</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>80.50298221304115</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>82.88054011090112</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>61.48185403163331</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>28.85008256489769</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304787.3935747218</v>
+        <v>180124.3499034379</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8041589.773721423</v>
+        <v>6765418.657980112</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22317222.39794713</v>
+        <v>21407185.82625513</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3839322.14174515</v>
+        <v>4236941.247183788</v>
       </c>
     </row>
     <row r="11">
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="30">
@@ -2927,16 +2927,16 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>9.727356832651365</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>82.05901400520689</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>76.87928562742992</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>73.73075715809458</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>73.73075715809455</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>33.04178146831131</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>293.0513802154449</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>15.08695199673545</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.35001001408395</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>161.6042370215895</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>244.4760008573225</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>270.1855101186756</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>185.6311137961238</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>101.076717473572</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.52232115102021</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>33.04178146831131</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>86.22011793010606</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>81.17222046964969</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>86.01905564485649</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>169.091881765839</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.08695199673551</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>44.43608870824591</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>127.3078525439789</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>210.1796163797119</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>35.48064500251785</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>118.3524088382508</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>201.2241726739838</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>284.0959365097168</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>253.4613449019607</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>168.9069485794089</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>84.35255225685714</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>260.3598971564014</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>33.04178146831131</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>115.9135453040443</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>198.7853091397773</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>281.6570729755103</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>89.56847202447909</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>172.4402358602121</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>251.963645601572</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>175.8055008338497</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>91.25110451129788</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>6.696708188746101</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>15.08695199673548</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>81.35001001408399</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>161.6042370215896</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>244.4760008573226</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>305.8446287478054</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>334.835409437305</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>250.2810131147533</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>165.7266167922015</v>
       </c>
     </row>
   </sheetData>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K11" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L11" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M11" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N11" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O11" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P11" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L12" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M12" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N12" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O12" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P12" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L13" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M13" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N13" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O13" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P13" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K15" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L15" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M15" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N15" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O15" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P15" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L16" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M16" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N16" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O16" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P16" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K17" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L17" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M17" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N17" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O17" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P17" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013436</v>
       </c>
       <c r="K18" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800085</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601244</v>
       </c>
       <c r="N18" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076375</v>
       </c>
       <c r="O18" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755156</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N19" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886839</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P19" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K20" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L20" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P20" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K21" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L21" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M21" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O21" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>98.26877259920872</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>95.54231970584888</v>
       </c>
       <c r="M22" t="n">
-        <v>92.09541281912071</v>
+        <v>97.44478514428849</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>87.19087109886837</v>
       </c>
       <c r="O22" t="n">
-        <v>96.22962838366004</v>
+        <v>101.0531533451928</v>
       </c>
       <c r="P22" t="n">
-        <v>101.5955875616828</v>
+        <v>105.7229464559606</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>153.370242486095</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>210.4679097145473</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>166.3558290449623</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P26" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M27" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>118.7489056237013</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O28" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L29" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>196.3491900287383</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q29" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>121.2718469541505</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L31" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O31" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P31" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>207.0857338616452</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>130.7010388478133</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>158.5994992843545</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>150.346530604425</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P34" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>153.370242486095</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>70.01985409800083</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>113.4094678721621</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>132.95726400009</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L37" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O37" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P37" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>198.9585084620881</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>62.15747501601243</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>49.24841164076372</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>147.8235892739758</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>157.4094252289156</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49434172313325</v>
+        <v>183.3991642608161</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.5190384721106</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>228.7569389494465</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>226.3793228763365</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>126.759057355221</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>124.1497389218713</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>202.9004899546804</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>146.3998085983305</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>170.5809825359975</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>100.5004044969134</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>67.49691276755155</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M43" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>130.9760287887406</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>145.0480865901202</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>142.6704705170102</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>153.370242486095</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>207.8585912811975</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>214.4098912071395</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>230.1086609576568</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>97.01635169013434</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>86.87213017667128</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>153.7287064573271</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>145.8663273753387</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>129.5750881471879</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>151.2057651268778</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>73.70057286958928</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>99.69031190148982</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>162.4747015415545</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>170.8997234581946</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H11" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I11" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S11" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T11" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I12" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S12" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T12" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H13" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I13" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J13" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R13" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S13" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T13" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H14" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I14" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S14" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T14" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23588,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I15" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S15" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T15" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H16" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I16" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J16" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R16" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S16" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T16" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H17" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I17" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S17" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T17" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H18" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I18" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>78.03303713061706</v>
+        <v>80.5603238899909</v>
       </c>
       <c r="S18" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T18" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H19" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I19" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J19" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R19" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S19" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T19" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H20" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I20" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S20" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T20" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H21" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I21" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S21" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T21" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H22" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I22" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J22" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R22" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S22" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T22" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>280.9522844625884</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>298.2215177129355</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H23" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I23" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S23" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T23" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H24" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I24" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S24" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T24" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>132.0422280453829</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6922296731294</v>
+        <v>93.99559830264545</v>
       </c>
       <c r="H25" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I25" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J25" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R25" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S25" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T25" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>309.003084505386</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24457,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.6367263390697</v>
+        <v>331.0039515693001</v>
       </c>
       <c r="H26" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I26" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S26" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T26" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24536,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H27" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I27" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S27" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T27" t="n">
-        <v>198.728398625364</v>
+        <v>125.1617115811338</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H28" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I28" t="n">
-        <v>146.4662571175369</v>
+        <v>63.78366026198925</v>
       </c>
       <c r="J28" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R28" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S28" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T28" t="n">
-        <v>226.6691135000563</v>
+        <v>153.0841665253886</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,7 +24685,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>270.9741892613567</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.6367263390697</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H29" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I29" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S29" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T29" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="30">
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H30" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I30" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S30" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T30" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9179381734211</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H31" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I31" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J31" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.14583096471014</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>163.8605191622716</v>
+        <v>81.68608630768817</v>
       </c>
       <c r="S31" t="n">
-        <v>218.8102057935515</v>
+        <v>135.696072841947</v>
       </c>
       <c r="T31" t="n">
-        <v>226.6691135000563</v>
+        <v>143.1060713241569</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>242.4102864911766</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>291.542134612913</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,16 +24928,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G32" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H32" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I32" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S32" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T32" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2923720137513</v>
+        <v>167.5896058615895</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>265.5321163580867</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H33" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I33" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S33" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T33" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9179381734211</v>
+        <v>152.1898589823646</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>149.091734790099</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25089,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H34" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I34" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J34" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R34" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S34" t="n">
-        <v>218.8102057935515</v>
+        <v>145.6741680431787</v>
       </c>
       <c r="T34" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3027339191093</v>
+        <v>202.5957429663799</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>142.0008030297109</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H35" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I35" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S35" t="n">
-        <v>193.8433399116564</v>
+        <v>111.8681056243513</v>
       </c>
       <c r="T35" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2923720137513</v>
+        <v>177.5677010628212</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H36" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I36" t="n">
-        <v>77.12765456497084</v>
+        <v>4.798366823454742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S36" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T36" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>121.9738434179781</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>64.9066206588861</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.6922296731294</v>
+        <v>167.72635546074</v>
       </c>
       <c r="H37" t="n">
-        <v>159.571016214239</v>
+        <v>86.14366833144538</v>
       </c>
       <c r="I37" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J37" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R37" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S37" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T37" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>168.4287909645017</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H38" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I38" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>108.0327934026353</v>
+        <v>29.10284992829416</v>
       </c>
       <c r="S38" t="n">
-        <v>193.8433399116564</v>
+        <v>121.846200825583</v>
       </c>
       <c r="T38" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>244.0434061108086</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>286.0222483191428</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25475,7 +25475,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>63.7362132053125</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H39" t="n">
-        <v>108.7938786076111</v>
+        <v>27.12799016358964</v>
       </c>
       <c r="I39" t="n">
-        <v>77.12765456497084</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T39" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25557,22 +25557,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>72.70320548847459</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G40" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H40" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I40" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J40" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R40" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S40" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T40" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>299.0249893041543</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G41" t="n">
-        <v>414.6367263390697</v>
+        <v>414.7128039286263</v>
       </c>
       <c r="H41" t="n">
-        <v>332.654015158888</v>
+        <v>333.4331447729346</v>
       </c>
       <c r="I41" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S41" t="n">
-        <v>193.8433399116564</v>
+        <v>121.846200825583</v>
       </c>
       <c r="T41" t="n">
-        <v>220.1803856409053</v>
+        <v>220.5134152891894</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>302.5290862967273</v>
       </c>
     </row>
     <row r="42">
@@ -25721,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H42" t="n">
-        <v>108.7938786076111</v>
+        <v>32.30771854136661</v>
       </c>
       <c r="I42" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>78.03303713061706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.0641745378389</v>
+        <v>82.11140153892156</v>
       </c>
       <c r="T42" t="n">
-        <v>198.728398625364</v>
+        <v>115.1836163799021</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9179381734211</v>
+        <v>225.9206161404591</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>62.72511028724291</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>61.71219566360499</v>
       </c>
       <c r="G43" t="n">
-        <v>167.6922296731294</v>
+        <v>84.01750310141374</v>
       </c>
       <c r="H43" t="n">
-        <v>159.571016214239</v>
+        <v>159.8744254895399</v>
       </c>
       <c r="I43" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J43" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R43" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S43" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T43" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>144.8538961940002</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>323.1671933823852</v>
       </c>
       <c r="G44" t="n">
-        <v>414.6367263390697</v>
+        <v>340.9820467705318</v>
       </c>
       <c r="H44" t="n">
-        <v>332.654015158888</v>
+        <v>249.7242924136083</v>
       </c>
       <c r="I44" t="n">
-        <v>184.7994937051469</v>
+        <v>187.732474976528</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>108.0327934026353</v>
+        <v>112.8117022876204</v>
       </c>
       <c r="S44" t="n">
-        <v>193.8433399116564</v>
+        <v>195.5769579836776</v>
       </c>
       <c r="T44" t="n">
-        <v>220.1803856409053</v>
+        <v>136.8045629298631</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2923720137513</v>
+        <v>251.2984582209158</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25958,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.9871697683942</v>
+        <v>137.0278748673725</v>
       </c>
       <c r="H45" t="n">
-        <v>108.7938786076111</v>
+        <v>109.1870041687965</v>
       </c>
       <c r="I45" t="n">
-        <v>77.12765456497084</v>
+        <v>78.52912398154929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>78.03303713061706</v>
+        <v>80.56032388999088</v>
       </c>
       <c r="S45" t="n">
-        <v>165.0641745378389</v>
+        <v>165.8202538982478</v>
       </c>
       <c r="T45" t="n">
-        <v>198.728398625364</v>
+        <v>198.8924687392284</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9179381734211</v>
+        <v>142.2117637811329</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>159.0698299913307</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>167.9861308015933</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>122.0641328441512</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6922296731294</v>
+        <v>93.99559830264545</v>
       </c>
       <c r="H46" t="n">
-        <v>159.571016214239</v>
+        <v>76.16557313021367</v>
       </c>
       <c r="I46" t="n">
-        <v>146.4662571175369</v>
+        <v>147.4925126213155</v>
       </c>
       <c r="J46" t="n">
-        <v>72.23757736389061</v>
+        <v>74.65027054795544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.14583096471014</v>
+        <v>64.00340032544321</v>
       </c>
       <c r="R46" t="n">
-        <v>163.8605191622716</v>
+        <v>165.3949386670144</v>
       </c>
       <c r="S46" t="n">
-        <v>218.8102057935515</v>
+        <v>219.4049252012732</v>
       </c>
       <c r="T46" t="n">
-        <v>226.6691135000563</v>
+        <v>226.8149236834831</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3027339191093</v>
+        <v>286.3045953257062</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>202.8141459772647</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>134.8758009927685</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>331618.7005987585</v>
+        <v>332228.6751084033</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>331618.7005987585</v>
+        <v>332228.6751084033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>331618.7005987585</v>
+        <v>332228.6751084033</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>331618.7005987585</v>
+        <v>332228.6751084033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706195</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706195</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706194</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706194</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706195</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706196</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706196</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>331618.7005987585</v>
+        <v>405960.5612706195</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>91381.29470172945</v>
       </c>
       <c r="E2" t="n">
-        <v>97172.46592738405</v>
+        <v>96626.38646078818</v>
       </c>
       <c r="F2" t="n">
-        <v>97172.46592738405</v>
+        <v>96626.38646078818</v>
       </c>
       <c r="G2" t="n">
-        <v>97172.46592738405</v>
+        <v>96626.38646078818</v>
       </c>
       <c r="H2" t="n">
-        <v>97172.46592738405</v>
+        <v>96626.38646078818</v>
       </c>
       <c r="I2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="J2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="K2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="L2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="M2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="N2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="O2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
       <c r="P2" t="n">
-        <v>97172.46592738405</v>
+        <v>116783.7828091366</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>117896.1602839667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>22259.9417282444</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>28669.24800161988</v>
+        <v>30981.7055541812</v>
       </c>
       <c r="F4" t="n">
-        <v>28669.24800161989</v>
+        <v>30981.7055541812</v>
       </c>
       <c r="G4" t="n">
-        <v>28669.24800161988</v>
+        <v>30981.7055541812</v>
       </c>
       <c r="H4" t="n">
-        <v>28669.24800161989</v>
+        <v>30981.7055541812</v>
       </c>
       <c r="I4" t="n">
-        <v>28669.24800161988</v>
+        <v>41942.53253558382</v>
       </c>
       <c r="J4" t="n">
-        <v>28669.24800161989</v>
+        <v>41942.53253558382</v>
       </c>
       <c r="K4" t="n">
-        <v>28669.24800161988</v>
+        <v>41942.53253558381</v>
       </c>
       <c r="L4" t="n">
-        <v>28669.24800161989</v>
+        <v>41942.53253558382</v>
       </c>
       <c r="M4" t="n">
-        <v>28669.24800161988</v>
+        <v>41942.53253558381</v>
       </c>
       <c r="N4" t="n">
-        <v>28669.24800161989</v>
+        <v>41942.53253558382</v>
       </c>
       <c r="O4" t="n">
-        <v>28669.24800161988</v>
+        <v>41942.53253558382</v>
       </c>
       <c r="P4" t="n">
-        <v>28669.24800161989</v>
+        <v>41942.53253558382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="F5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="G5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240236</v>
       </c>
       <c r="H5" t="n">
-        <v>3611.612105008322</v>
+        <v>3199.062356240237</v>
       </c>
       <c r="I5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="J5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="K5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="L5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="M5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="N5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="O5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
       <c r="P5" t="n">
-        <v>3611.612105008322</v>
+        <v>8288.560579687273</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9375.362212578577</v>
+        <v>-5775.311757456187</v>
       </c>
       <c r="C6" t="n">
-        <v>9375.36221257857</v>
+        <v>-5775.311757456195</v>
       </c>
       <c r="D6" t="n">
-        <v>9375.362212578577</v>
+        <v>-5775.311757456187</v>
       </c>
       <c r="E6" t="n">
-        <v>-68208.39417924421</v>
+        <v>-70292.68089427832</v>
       </c>
       <c r="F6" t="n">
-        <v>64891.60582075585</v>
+        <v>47603.47938968839</v>
       </c>
       <c r="G6" t="n">
-        <v>64891.60582075585</v>
+        <v>47603.47938968839</v>
       </c>
       <c r="H6" t="n">
-        <v>64891.60582075585</v>
+        <v>47603.47938968838</v>
       </c>
       <c r="I6" t="n">
-        <v>64891.60582075585</v>
+        <v>30636.33800190439</v>
       </c>
       <c r="J6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.27973014878</v>
       </c>
       <c r="K6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.2797301488</v>
       </c>
       <c r="L6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.27973014879</v>
       </c>
       <c r="M6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.2797301488</v>
       </c>
       <c r="N6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.27973014878</v>
       </c>
       <c r="O6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.27973014878</v>
       </c>
       <c r="P6" t="n">
-        <v>64891.60582075585</v>
+        <v>52896.27973014878</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="H3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="I3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="J3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="K3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="L3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="M3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="N3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="O3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="P3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6702800462533</v>
+        <v>146.7459796440475</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H11" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I11" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K11" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L11" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M11" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N11" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O11" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P11" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q11" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R11" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S11" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T11" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H12" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I12" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J12" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K12" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L12" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M12" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N12" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O12" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P12" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R12" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S12" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T12" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H13" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I13" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J13" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K13" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L13" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M13" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N13" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O13" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P13" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R13" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S13" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H14" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I14" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K14" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L14" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M14" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N14" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O14" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P14" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q14" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R14" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S14" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T14" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U14" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H15" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I15" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J15" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K15" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L15" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M15" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N15" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O15" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P15" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R15" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S15" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T15" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H16" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I16" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J16" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K16" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L16" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M16" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N16" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O16" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P16" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R16" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S16" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087333</v>
       </c>
       <c r="H17" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832566</v>
       </c>
       <c r="I17" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387796</v>
       </c>
       <c r="J17" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794564</v>
       </c>
       <c r="K17" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486034</v>
       </c>
       <c r="L17" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297701</v>
       </c>
       <c r="M17" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N17" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747196</v>
       </c>
       <c r="O17" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387341</v>
       </c>
       <c r="P17" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693905</v>
       </c>
       <c r="Q17" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009501</v>
       </c>
       <c r="R17" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S17" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256777</v>
       </c>
       <c r="T17" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069865</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H18" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699931</v>
       </c>
       <c r="I18" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986578</v>
       </c>
       <c r="J18" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K18" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768771</v>
       </c>
       <c r="L18" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187333</v>
       </c>
       <c r="M18" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600588</v>
       </c>
       <c r="N18" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256956</v>
       </c>
       <c r="O18" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689287</v>
       </c>
       <c r="P18" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q18" t="n">
-        <v>45.48743236288827</v>
+        <v>40.29146218453169</v>
       </c>
       <c r="R18" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S18" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590008</v>
       </c>
       <c r="T18" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187741</v>
       </c>
       <c r="H19" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899648</v>
       </c>
       <c r="I19" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942774</v>
       </c>
       <c r="J19" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K19" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132666</v>
       </c>
       <c r="L19" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M19" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N19" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O19" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665002</v>
       </c>
       <c r="P19" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625117</v>
       </c>
       <c r="R19" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S19" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835698999</v>
       </c>
       <c r="T19" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798398</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H20" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I20" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J20" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K20" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L20" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M20" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N20" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O20" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P20" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q20" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R20" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S20" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T20" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H21" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I21" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J21" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K21" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L21" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M21" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N21" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O21" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P21" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R21" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S21" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T21" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H22" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I22" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J22" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K22" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L22" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M22" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N22" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O22" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P22" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R22" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S22" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T22" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H23" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I23" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J23" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K23" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L23" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M23" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N23" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O23" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P23" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q23" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R23" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S23" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T23" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U23" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H24" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I24" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J24" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K24" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L24" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M24" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N24" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O24" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P24" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q24" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R24" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S24" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T24" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H25" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I25" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J25" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K25" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L25" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M25" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N25" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O25" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P25" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R25" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S25" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T25" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H26" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I26" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J26" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K26" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L26" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M26" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N26" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O26" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P26" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q26" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R26" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S26" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T26" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H27" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I27" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J27" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K27" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L27" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M27" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N27" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O27" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P27" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q27" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R27" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S27" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T27" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H28" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I28" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J28" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K28" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L28" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M28" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N28" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O28" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P28" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R28" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S28" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T28" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H29" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I29" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J29" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K29" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L29" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M29" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N29" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O29" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P29" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R29" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S29" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T29" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H30" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I30" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J30" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K30" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L30" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M30" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N30" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O30" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P30" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q30" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R30" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S30" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T30" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H31" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I31" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J31" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K31" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L31" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M31" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N31" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O31" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P31" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R31" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S31" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T31" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H32" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I32" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J32" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K32" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M32" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N32" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O32" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P32" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q32" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R32" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S32" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T32" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H33" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I33" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J33" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K33" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L33" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M33" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N33" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O33" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P33" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R33" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S33" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T33" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H34" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I34" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J34" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K34" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L34" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M34" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N34" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O34" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P34" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R34" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S34" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T34" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H35" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I35" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J35" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K35" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L35" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M35" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N35" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O35" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P35" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R35" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S35" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T35" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H36" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I36" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J36" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K36" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L36" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M36" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N36" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O36" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P36" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R36" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S36" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T36" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H37" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I37" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J37" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K37" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L37" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M37" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N37" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O37" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P37" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R37" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S37" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T37" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H38" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I38" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J38" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K38" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L38" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M38" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N38" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O38" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P38" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q38" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R38" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S38" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T38" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U38" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H39" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I39" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J39" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K39" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L39" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M39" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N39" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O39" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P39" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q39" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R39" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S39" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T39" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H40" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I40" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J40" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K40" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L40" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M40" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N40" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O40" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P40" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R40" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S40" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T40" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H41" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I41" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J41" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K41" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L41" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M41" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N41" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O41" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P41" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q41" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R41" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S41" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T41" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U41" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H42" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I42" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J42" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K42" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L42" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M42" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N42" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O42" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P42" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q42" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R42" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S42" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T42" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H43" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I43" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J43" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K43" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L43" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M43" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N43" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O43" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P43" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R43" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S43" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T43" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6660111760653394</v>
+        <v>0.5899335865087334</v>
       </c>
       <c r="H44" t="n">
-        <v>6.820786956879159</v>
+        <v>6.041657342832568</v>
       </c>
       <c r="I44" t="n">
-        <v>25.67639586525902</v>
+        <v>22.74341459387797</v>
       </c>
       <c r="J44" t="n">
-        <v>56.52686605457566</v>
+        <v>50.06987573794566</v>
       </c>
       <c r="K44" t="n">
-        <v>84.71911913742149</v>
+        <v>75.04176445486036</v>
       </c>
       <c r="L44" t="n">
-        <v>105.1015586669311</v>
+        <v>93.09594445297702</v>
       </c>
       <c r="M44" t="n">
-        <v>116.9457349192831</v>
+        <v>103.5871758720517</v>
       </c>
       <c r="N44" t="n">
-        <v>118.8380391732788</v>
+        <v>105.2633246747197</v>
       </c>
       <c r="O44" t="n">
-        <v>112.215390541279</v>
+        <v>99.39717257387343</v>
       </c>
       <c r="P44" t="n">
-        <v>95.77323963216597</v>
+        <v>84.83318715693906</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.92171438932597</v>
+        <v>63.70619059009503</v>
       </c>
       <c r="R44" t="n">
-        <v>41.83632453851442</v>
+        <v>37.05741565352925</v>
       </c>
       <c r="S44" t="n">
-        <v>15.17672967458894</v>
+        <v>13.44311160256778</v>
       </c>
       <c r="T44" t="n">
-        <v>2.915463923226025</v>
+        <v>2.582434274941982</v>
       </c>
       <c r="U44" t="n">
-        <v>0.05328089408522715</v>
+        <v>0.04719468692069866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3563473948164694</v>
+        <v>0.31564229583814</v>
       </c>
       <c r="H45" t="n">
-        <v>3.441565628885376</v>
+        <v>3.048440067699932</v>
       </c>
       <c r="I45" t="n">
-        <v>12.26897828644423</v>
+        <v>10.86750886986579</v>
       </c>
       <c r="J45" t="n">
-        <v>33.66701417430512</v>
+        <v>29.82127497653234</v>
       </c>
       <c r="K45" t="n">
-        <v>57.54228962700857</v>
+        <v>50.96930879768772</v>
       </c>
       <c r="L45" t="n">
-        <v>77.37270956311104</v>
+        <v>68.53452568187335</v>
       </c>
       <c r="M45" t="n">
-        <v>90.29030262520804</v>
+        <v>79.97655890600589</v>
       </c>
       <c r="N45" t="n">
-        <v>92.68001826851675</v>
+        <v>82.09330044256959</v>
       </c>
       <c r="O45" t="n">
-        <v>84.7841102044255</v>
+        <v>75.09933167689289</v>
       </c>
       <c r="P45" t="n">
-        <v>68.04672313824318</v>
+        <v>60.27383454474096</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.48743236288827</v>
+        <v>40.2914621845317</v>
       </c>
       <c r="R45" t="n">
-        <v>22.12479702202607</v>
+        <v>19.59751026265224</v>
       </c>
       <c r="S45" t="n">
-        <v>6.61899656599889</v>
+        <v>5.862917205590009</v>
       </c>
       <c r="T45" t="n">
-        <v>1.436330069457611</v>
+        <v>1.272259955593204</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0234439075537151</v>
+        <v>0.02076594051566711</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2987496853293092</v>
+        <v>0.2646238977187742</v>
       </c>
       <c r="H46" t="n">
-        <v>2.656156293200588</v>
+        <v>2.352747017899649</v>
       </c>
       <c r="I46" t="n">
-        <v>8.984217809721411</v>
+        <v>7.957962305942776</v>
       </c>
       <c r="J46" t="n">
-        <v>21.12160275278216</v>
+        <v>18.70890956871733</v>
       </c>
       <c r="K46" t="n">
-        <v>34.70928162280519</v>
+        <v>30.74448557132667</v>
       </c>
       <c r="L46" t="n">
-        <v>44.41593048977749</v>
+        <v>39.3423565753894</v>
       </c>
       <c r="M46" t="n">
-        <v>46.83037112848434</v>
+        <v>41.48099880331657</v>
       </c>
       <c r="N46" t="n">
-        <v>45.71684957407514</v>
+        <v>40.49467336636481</v>
       </c>
       <c r="O46" t="n">
-        <v>42.22691006818274</v>
+        <v>37.40338510665003</v>
       </c>
       <c r="P46" t="n">
-        <v>36.1324164874648</v>
+        <v>32.005057593187</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.01621228698425</v>
+        <v>22.15864292625118</v>
       </c>
       <c r="R46" t="n">
-        <v>13.43287221489784</v>
+        <v>11.89845271015506</v>
       </c>
       <c r="S46" t="n">
-        <v>5.206392243420778</v>
+        <v>4.611672835699</v>
       </c>
       <c r="T46" t="n">
-        <v>1.27647592822523</v>
+        <v>1.130665744798399</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0162954373815987</v>
+        <v>0.01443403078466043</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36366,19 +36366,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>51.25199285614969</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>42.20609012309109</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36843,16 +36843,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>51.25199285614971</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.25199285614971</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37551,19 +37551,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>8.474993745443845</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>66.93238183570554</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>38.12058638333314</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>72.19945110686707</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.07468365027449</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>51.25199285614972</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>26.61118513087395</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>53.71549137555022</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>80.32667650642419</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>8.474993745443818</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>66.93238183570557</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>81.06487576515715</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>83.70885235932626</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>61.9885130206897</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>29.28361685808049</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
